--- a/xfold/xfold-shortcuts.xlsx
+++ b/xfold/xfold-shortcuts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Links\ahk\xfold\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AF25AB-2473-4EB5-A5F7-A8B17467161F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D218B2D6-8465-4223-AFA2-ADB94F69BFC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="20186" windowHeight="12920" activeTab="1" xr2:uid="{73FB8399-4C17-4E0F-81A6-69D82FFF20BC}"/>
   </bookViews>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="227">
   <si>
     <t>LButton+单键</t>
   </si>
@@ -191,10 +191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>findit@everything</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>谷歌搜索</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -331,10 +327,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>findit-nochop@everything</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>复制窗口标题到剪贴板</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -379,10 +371,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>youglish search English</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ADC新增任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -455,10 +443,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>重启Seer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>开放-外部接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -706,10 +690,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Win+S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Win+Alt+L</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -782,10 +762,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>preview-seer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Win+Alt+N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -826,10 +802,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>open(ahk-shortcuts.xlsx)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>有道英语查词</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -845,14 +817,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>keys-default</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>keys-leexioua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>文本编辑器中查看</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -910,10 +874,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>findit-fullpath@everything</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>关闭窗口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1003,6 +963,38 @@
   </si>
   <si>
     <t>文件对话框快速跳转目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Everything搜索（不截取）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Everything搜索（截取文件名）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xfold-shortcuts-default.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keys-default.txt;keys-user.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Win+Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重启QuickLook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xfold-shortcuts-leexioua.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keys-leexioua.txt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1240,6 +1232,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1249,19 +1244,16 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1584,7 +1576,7 @@
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="12.7" x14ac:dyDescent="0.45"/>
@@ -1596,7 +1588,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>3</v>
@@ -1640,7 +1632,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1680,7 +1672,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1694,19 +1686,21 @@
       <c r="A5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4" t="s">
-        <v>71</v>
+      <c r="B5" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
@@ -1745,7 +1739,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1762,7 +1756,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B9" s="6">
         <v>1</v>
@@ -1795,37 +1789,37 @@
         <v>0</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="D10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1858,7 +1852,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1875,71 +1869,71 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="F14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="G14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="H14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="I14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="J14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="K14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="L14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="M14" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>62</v>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
@@ -1947,14 +1941,12 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>68</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="D16" s="11"/>
       <c r="E16" s="1"/>
       <c r="F16" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1973,7 +1965,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1985,92 +1977,92 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="E19" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="F19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="G19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="H19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="I19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="J19" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="K19" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="L19" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="L19" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="M19" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="B20" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" s="8" t="s">
@@ -2108,15 +2100,15 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="3" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="3" t="s">
-        <v>56</v>
+        <v>219</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -2129,76 +2121,76 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="E24" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="F24" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="G24" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="H24" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="I24" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="J24" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="J24" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="K24" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="C25" s="5"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="F25" s="4" t="s">
+      <c r="D25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
       <c r="I25" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>127</v>
+        <v>114</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.45">
@@ -2237,7 +2229,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2253,27 +2245,27 @@
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A30" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B30" s="18"/>
+      <c r="A30" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="19"/>
       <c r="D30" s="21" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
@@ -2287,36 +2279,36 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="12" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
+        <v>185</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32" s="12" t="s">
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>89</v>
+        <v>196</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="3"/>
@@ -2329,16 +2321,16 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A33" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>92</v>
+        <v>204</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="3"/>
@@ -2351,16 +2343,16 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A34" s="12" t="s">
-        <v>193</v>
+        <v>146</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>194</v>
+        <v>86</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="1"/>
@@ -2373,10 +2365,10 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A35" s="12" t="s">
-        <v>207</v>
+        <v>147</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>206</v>
+        <v>85</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="1"/>
@@ -2391,10 +2383,10 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A36" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>213</v>
+        <v>155</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="1"/>
@@ -2524,8 +2516,8 @@
   </sheetPr>
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31:G31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="12.7" x14ac:dyDescent="0.45"/>
@@ -2537,7 +2529,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>3</v>
@@ -2581,32 +2573,32 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
@@ -2614,23 +2606,23 @@
         <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="3" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="3" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="3"/>
@@ -2641,34 +2633,34 @@
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
@@ -2687,7 +2679,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
@@ -2695,15 +2687,15 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>183</v>
+        <v>225</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -2732,7 +2724,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2744,14 +2736,14 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B9" s="6">
         <v>1</v>
@@ -2784,10 +2776,10 @@
         <v>0</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
@@ -2797,7 +2789,7 @@
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -2808,7 +2800,7 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
@@ -2816,13 +2808,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>189</v>
+        <v>226</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -2853,7 +2845,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2870,43 +2862,43 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="F14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="G14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="H14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="I14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="J14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="K14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="L14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="M14" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
@@ -2914,29 +2906,29 @@
         <v>0</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="F15" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M15" s="4"/>
     </row>
@@ -2946,14 +2938,12 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>68</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="D16" s="11"/>
       <c r="E16" s="1"/>
       <c r="F16" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -2972,7 +2962,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -2984,64 +2974,64 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="E19" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="F19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="G19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="H19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="I19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="J19" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="K19" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="L19" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="L19" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="M19" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.45">
@@ -3052,19 +3042,19 @@
         <v>19</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="G20" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -3109,17 +3099,17 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="3" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -3132,60 +3122,60 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="E24" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="F24" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="G24" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="H24" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="I24" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="J24" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="J24" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="K24" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>18</v>
@@ -3193,19 +3183,19 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="5" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.45">
@@ -3244,7 +3234,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -3260,123 +3250,123 @@
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A30" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B30" s="18"/>
+      <c r="A30" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="19"/>
       <c r="D30" s="21" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
-      <c r="J30" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
+      <c r="J30" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="12" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="I31" s="20"/>
+        <v>185</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="I31" s="22"/>
       <c r="J31" s="23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K31" s="23"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32" s="12" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="L32" s="13"/>
       <c r="M32" s="14"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A33" s="12" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H33" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="I33" s="20"/>
+        <v>64</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="I33" s="22"/>
       <c r="J33" s="7"/>
       <c r="K33" s="3"/>
       <c r="L33" s="7"/>
@@ -3384,28 +3374,28 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A34" s="12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J34" s="7"/>
       <c r="K34" s="3"/>
@@ -3414,27 +3404,27 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A35" s="12" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>92</v>
+        <v>196</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H35" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="I35" s="20"/>
+        <v>132</v>
+      </c>
+      <c r="H35" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="I35" s="22"/>
       <c r="J35" s="7"/>
       <c r="K35" s="3"/>
       <c r="L35" s="7"/>
@@ -3442,25 +3432,25 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A36" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>19</v>
@@ -3472,27 +3462,27 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>213</v>
+        <v>140</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H37" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="I37" s="20"/>
+        <v>134</v>
+      </c>
+      <c r="H37" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I37" s="22"/>
       <c r="J37" s="7"/>
       <c r="K37" s="3"/>
       <c r="L37" s="7"/>
@@ -3500,28 +3490,28 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38" s="12" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="G38" s="24" t="s">
-        <v>210</v>
+        <v>198</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>200</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J38" s="7"/>
       <c r="K38" s="3"/>
@@ -3530,22 +3520,22 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A39" s="12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="3"/>
@@ -3556,21 +3546,21 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A40" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F40" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="G40" s="20"/>
+        <v>136</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="G40" s="22"/>
       <c r="H40" s="7"/>
       <c r="I40" s="3"/>
       <c r="J40" s="7"/>
@@ -3580,22 +3570,22 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A41" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="3"/>
@@ -3606,22 +3596,22 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A42" s="12" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="3"/>
@@ -3632,22 +3622,22 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A43" s="12" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="3"/>
@@ -3658,18 +3648,18 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A44" s="12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="1"/>
       <c r="F44" s="7" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="3"/>
@@ -3680,18 +3670,18 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A45" s="12" t="s">
-        <v>153</v>
+        <v>223</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>87</v>
+        <v>224</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="1"/>
       <c r="F45" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="3"/>
@@ -3702,10 +3692,10 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A46" s="12" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="1"/>
@@ -3720,10 +3710,10 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A47" s="12" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="1"/>
@@ -3738,10 +3728,10 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A48" s="12" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="1"/>
@@ -3756,10 +3746,10 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A49" s="12" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="1"/>
@@ -3774,10 +3764,10 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A50" s="12" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="1"/>
@@ -3792,10 +3782,10 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A51" s="12" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="1"/>
@@ -3810,10 +3800,10 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A52" s="12" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="1"/>
@@ -3828,10 +3818,10 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A53" s="12" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="1"/>
@@ -3846,10 +3836,10 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A54" s="12" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="1"/>
@@ -3864,10 +3854,10 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A55" s="12" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="1"/>
@@ -3882,6 +3872,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="F40:G40"/>
     <mergeCell ref="A29:M29"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="F31:G31"/>
@@ -3890,11 +3885,6 @@
     <mergeCell ref="J31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="F40:G40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/xfold/xfold-shortcuts.xlsx
+++ b/xfold/xfold-shortcuts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Links\ahk\xfold\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58AAD15-7141-4F52-A83A-03121D205948}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C3E0DA-D10B-4857-9F71-F09752C3C412}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="20186" windowHeight="12920" xr2:uid="{73FB8399-4C17-4E0F-81A6-69D82FFF20BC}"/>
   </bookViews>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="235">
   <si>
     <t>LButton+单键</t>
   </si>
@@ -1659,10 +1659,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="12.7" x14ac:dyDescent="0.45"/>
@@ -1717,7 +1717,9 @@
       <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1751,9 +1753,7 @@
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>162</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2367,10 +2367,10 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="9" t="s">
-        <v>216</v>
+        <v>161</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="2"/>
@@ -2389,10 +2389,10 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>218</v>
+        <v>122</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>162</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="2"/>
@@ -2415,10 +2415,10 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A33" s="9" t="s">
-        <v>165</v>
+        <v>216</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="2"/>
@@ -2437,10 +2437,10 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A34" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>77</v>
+        <v>215</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>218</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="2"/>
@@ -2459,10 +2459,10 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A35" s="9" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="2"/>
@@ -2481,10 +2481,10 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A36" s="9" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="2"/>
@@ -2498,8 +2498,12 @@
       <c r="M36" s="2"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A37" s="9"/>
-      <c r="B37" s="13"/>
+      <c r="A37" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>76</v>
+      </c>
       <c r="C37" s="12"/>
       <c r="D37" s="2"/>
       <c r="F37" s="5"/>
@@ -2512,8 +2516,12 @@
       <c r="M37" s="2"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A38" s="9"/>
-      <c r="B38" s="13"/>
+      <c r="A38" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>79</v>
+      </c>
       <c r="C38" s="12"/>
       <c r="D38" s="2"/>
       <c r="F38" s="5"/>
@@ -2622,6 +2630,76 @@
       <c r="K45" s="13"/>
       <c r="L45" s="11"/>
       <c r="M45" s="2"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A46" s="9"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="10"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="2"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A47" s="9"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="10"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="2"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A48" s="9"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="10"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="2"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A49" s="9"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="10"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="2"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A50" s="9"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="10"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2649,8 +2727,8 @@
   </sheetPr>
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="12.7" x14ac:dyDescent="0.45"/>

--- a/xfold/xfold-shortcuts.xlsx
+++ b/xfold/xfold-shortcuts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Links\ahk\xfold\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C3E0DA-D10B-4857-9F71-F09752C3C412}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0F92E6-526C-4872-83D4-5BB7214D4B42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="20186" windowHeight="12920" xr2:uid="{73FB8399-4C17-4E0F-81A6-69D82FFF20BC}"/>
   </bookViews>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="238">
   <si>
     <t>LButton+单键</t>
   </si>
@@ -331,10 +331,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>文本搜索@filelocator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>everything-cmds</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -343,10 +339,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hifini</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>escape4Cmd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -487,548 +479,566 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>保存剪贴板内容到文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LButton+长按</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Snipaste截图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Snipaste贴图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capslock clQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>configbak_Backup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Markdown语法高亮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Alt+Tab</t>
+  </si>
+  <si>
+    <t>getAccAllText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getAccInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开keepass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alt+E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl+E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl+D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConvertToUTF8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除当前行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择已打开文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileLocatorPro.exe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换视图-详细列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换视图-平铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>``</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl+E E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl+Shift+K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl+M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Win+Alt+Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Win+Alt+F5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAlt双键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Win+-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Win+=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Win+`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Win+Alt+L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl+RButton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MouseInc右键菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XButton1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl+XButton1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl+XButton2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LButton+Ctrl+C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LButton+Ctrl+V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LButton+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LButton+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LButton+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LButton+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LButton+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LButton+6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LButton+7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LButton+8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LButton+M M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Win+Alt+N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开印象笔记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl+Shift+C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>locator-cmd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl+Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl+Alr+R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重启xfold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本编辑查看选中文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xfold-cmd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剪贴板图片转URI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Ctrl+Q Q </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alt+C C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LButton+x x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mdCheckToggle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关热键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧路英语查词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eudic.exe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alt+Tab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XButton2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PotPlayer 下一句字幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PotPlayer 上一句字幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shift+XButton2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAlt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PotPlayer 取消字幕循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件对话框快速跳转目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Win+Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重启QuickLook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keys-leexioua.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alt+C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制选中文件路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看collect-cmd收藏的笔记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看xfold收藏的笔记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看最近一次操作信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制窗口进程名称到剪贴板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Everything搜索选中文本（截取文件名）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Everything搜索选中文本（不截取）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有道英语查词选中文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Youtube搜索选中文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xfold笔记收藏 选中文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行/打开选中对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collect-cmd-v2笔记收藏 选中文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail-cmd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toAltRun_xfoldCmd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toAltRun_evernoteTerms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toAltRun_everythingTerms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toAltRun_mailCmd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd-search-cmd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl+Alt+\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl+Alt+R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SwitchOn开关切换</t>
+  </si>
+  <si>
+    <t>SwitchOn开关切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeyondCompare4</t>
+  </si>
+  <si>
+    <t>cmd.exe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Ctrl+Q </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Koodo.exe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LButton+a a a a</t>
+  </si>
+  <si>
+    <t>view xfold-src-file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预览当前文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chrome.exe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuickLook.exe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩小视图/缩小字体大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放大视图/增加字体大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Everything.exe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换窗口QuickLook（如有）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>edit(#笔记索引入口.md)</t>
+  </si>
+  <si>
+    <t>edit(xfold.ahk)</t>
+  </si>
+  <si>
+    <t>ahk-中文手册</t>
+  </si>
+  <si>
     <t>ALTRun</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>保存剪贴板内容到文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Youglish-En</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Youglish-Es</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LButton+长按</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Snipaste截图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Snipaste贴图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Capslock clQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>configbak_Backup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Markdown语法高亮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Delete</t>
-  </si>
-  <si>
-    <t>Alt+Tab</t>
-  </si>
-  <si>
-    <t>getAccAllText</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getAccInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开keepass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alt+E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ctrl+E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ctrl+D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConvertToUTF8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除当前行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择已打开文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FileLocatorPro.exe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切换视图-详细列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切换视图-平铺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>`</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>``</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ctrl+E E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ctrl+Shift+K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ctrl+M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Win+Alt+Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Win+Alt+F5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RAlt双键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Win+-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Win+=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Win+`</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Win+Alt+L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ctrl+RButton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MouseInc右键菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XButton1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ctrl+XButton1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ctrl+XButton2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LButton+Ctrl+C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LButton+Ctrl+V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LButton+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LButton+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LButton+3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LButton+4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LButton+5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LButton+6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LButton+7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LButton+8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LButton+M M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Win+Alt+N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开印象笔记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>redo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ctrl+Shift+C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>edit(xfold.ahk)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>edit(#笔记索引入口.md)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>locator-cmd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ctrl+Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ctrl+Alr+R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重启xfold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文本编辑查看选中文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xfold-cmd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剪贴板图片转URI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭窗口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Ctrl+Q Q </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alt+C C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LButton+x x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mdCheckToggle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Youglish-en</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Youglish-es</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开关热键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欧路英语查词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eudic.exe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alt+Tab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XButton2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PotPlayer 下一句字幕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PotPlayer 上一句字幕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shift+XButton2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RAlt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PotPlayer 取消字幕循环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件对话框快速跳转目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>keys-default.txt;keys-user.txt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Win+Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重启QuickLook</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xfold-shortcuts-leexioua.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>keys-leexioua.txt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alt+C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复制选中文件路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看collect-cmd收藏的笔记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看xfold收藏的笔记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ahk-中文手册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看最近一次操作信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复制窗口进程名称到剪贴板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谷歌搜索选中文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百度搜索选中文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Everything搜索选中文本（截取文件名）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Everything搜索选中文本（不截取）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>知乎搜索选中文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文本编辑器中查看选中文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有道英语查词选中文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Youtube搜索选中文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>豆瓣搜索选中文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xfold笔记收藏 选中文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预览查看选中文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运行/打开选中对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>collect-cmd-v2笔记收藏 选中文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>印象笔记中搜索选中文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mail-cmd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>toAltRun_xfoldCmd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>toAltRun_evernoteTerms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>toAltRun_everythingTerms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>toAltRun_mailCmd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd-search-cmd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ctrl+Alt+\</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ctrl+Alt+R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SwitchOn开关切换</t>
-  </si>
-  <si>
-    <t>SwitchOn开关切换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xfold-shortcuts-default.pdf</t>
-  </si>
-  <si>
-    <t>ADC新增任务</t>
-  </si>
-  <si>
-    <t>BeyondCompare4</t>
-  </si>
-  <si>
-    <t>cmd.exe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Ctrl+Q </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Koodo.exe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LButton+a a a a</t>
-  </si>
-  <si>
-    <t>view xfold-src-file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预览当前文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chrome.exe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QuickLook.exe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缩小视图/缩小字体大小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>放大视图/增加字体大小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Everything.exe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切换窗口QuickLook（如有）</t>
+    <t>Yzime造词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xfold-shortcuts.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷歌地图搜索-选中文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧路英语查词-选中文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本编辑器打开-选中文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆瓣搜索-选中文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有道英语查词-选中文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷歌搜索-选中文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度搜索-选中文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预览查看-选中文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知乎搜索-选中文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Youglish-EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Youglish-ES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keys-user.txt;keys-default.txt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印象笔记搜索-选中文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为术语查询-选中文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度地图搜索-选中文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forvo发音查询-选中文本</t>
+  </si>
+  <si>
+    <t>Forvo发音查询-选中文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷歌图片搜索-选中文本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1036,7 +1046,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1108,6 +1118,23 @@
     </font>
     <font>
       <b/>
+      <sz val="8"/>
+      <color rgb="FFC00000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="8"/>
       <color rgb="FFC00000"/>
       <name val="等线"/>
@@ -1251,7 +1278,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1311,6 +1338,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1662,7 +1701,7 @@
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="12.7" x14ac:dyDescent="0.45"/>
@@ -1674,7 +1713,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>3</v>
@@ -1718,7 +1757,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1780,11 +1819,11 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
@@ -1825,7 +1864,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1842,7 +1881,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
@@ -1875,10 +1914,10 @@
         <v>0</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
@@ -1886,12 +1925,19 @@
         <v>0</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>234</v>
+      </c>
       <c r="D10" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+        <v>89</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F10" s="3" t="str">
+        <f>$E$16</f>
+        <v>华为术语查询-选中文本</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1905,7 +1951,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>183</v>
+        <v>231</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1938,7 +1984,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1955,7 +2001,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>19</v>
@@ -2003,19 +2049,21 @@
         <v>55</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>54</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="I15" s="3" t="s">
+        <v>237</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2027,10 +2075,12 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>233</v>
+      </c>
       <c r="F16" s="2" t="s">
         <v>53</v>
       </c>
@@ -2063,7 +2113,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2077,14 +2127,14 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>30</v>
@@ -2128,19 +2178,19 @@
         <v>0</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -2186,15 +2236,15 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -2207,7 +2257,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>41</v>
@@ -2237,46 +2287,48 @@
         <v>49</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C25" s="3"/>
+        <v>228</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>235</v>
+      </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3" t="s">
-        <v>99</v>
+        <v>229</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.45">
@@ -2286,7 +2338,9 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>236</v>
+      </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -2315,7 +2369,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2331,76 +2385,76 @@
       <c r="M28" s="2"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A30" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="F30" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="M30" s="29"/>
+      <c r="A30" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="F30" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="M30" s="33"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="9" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="2"/>
-      <c r="F31" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="G31" s="22"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="M31" s="26"/>
+      <c r="F31" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="26"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="M31" s="30"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32" s="9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="2"/>
       <c r="F32" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H32" s="17"/>
       <c r="I32" s="13"/>
@@ -2410,23 +2464,23 @@
         <v>50</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A33" s="9" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="2"/>
       <c r="F33" s="5" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="H33" s="17"/>
       <c r="I33" s="13"/>
@@ -2437,18 +2491,18 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A34" s="9" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="2"/>
       <c r="F34" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="H34" s="17"/>
       <c r="I34" s="13"/>
@@ -2459,18 +2513,18 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A35" s="9" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="2"/>
       <c r="F35" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="H35" s="17"/>
       <c r="I35" s="13"/>
@@ -2481,10 +2535,10 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A36" s="9" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="2"/>
@@ -2499,10 +2553,10 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37" s="9" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="2"/>
@@ -2517,10 +2571,10 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="2"/>
@@ -2728,7 +2782,7 @@
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="12.7" x14ac:dyDescent="0.45"/>
@@ -2740,76 +2794,91 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>14</v>
+        <v>69</v>
+      </c>
+      <c r="B1" s="4" t="str">
+        <f>'shortcuts-default'!B1</f>
+        <v>F1</v>
+      </c>
+      <c r="C1" s="4" t="str">
+        <f>'shortcuts-default'!C1</f>
+        <v>F2</v>
+      </c>
+      <c r="D1" s="4" t="str">
+        <f>'shortcuts-default'!D1</f>
+        <v>F3</v>
+      </c>
+      <c r="E1" s="4" t="str">
+        <f>'shortcuts-default'!E1</f>
+        <v>F4</v>
+      </c>
+      <c r="F1" s="4" t="str">
+        <f>'shortcuts-default'!F1</f>
+        <v>F5</v>
+      </c>
+      <c r="G1" s="4" t="str">
+        <f>'shortcuts-default'!G1</f>
+        <v>F6</v>
+      </c>
+      <c r="H1" s="4" t="str">
+        <f>'shortcuts-default'!H1</f>
+        <v>F7</v>
+      </c>
+      <c r="I1" s="4" t="str">
+        <f>'shortcuts-default'!I1</f>
+        <v>F8</v>
+      </c>
+      <c r="J1" s="4" t="str">
+        <f>'shortcuts-default'!J1</f>
+        <v>F9</v>
+      </c>
+      <c r="K1" s="4" t="str">
+        <f>'shortcuts-default'!K1</f>
+        <v>F10</v>
+      </c>
+      <c r="L1" s="4" t="str">
+        <f>'shortcuts-default'!L1</f>
+        <v>F11</v>
+      </c>
+      <c r="M1" s="4" t="str">
+        <f>'shortcuts-default'!M1</f>
+        <v>F12</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" s="2"/>
+      <c r="B2" s="22" t="str">
+        <f>'shortcuts-default'!B2</f>
+        <v>xfold-cmd</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>218</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
@@ -2817,7 +2886,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2825,13 +2894,13 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -2842,13 +2911,13 @@
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -2857,7 +2926,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -2875,41 +2944,44 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="3" t="s">
-        <v>217</v>
+      <c r="K5" s="23" t="str">
+        <f>'shortcuts-default'!K5</f>
+        <v>SwitchOn开关切换</v>
       </c>
       <c r="L5" s="3"/>
-      <c r="M5" s="3" t="s">
-        <v>61</v>
+      <c r="M5" s="23" t="str">
+        <f>'shortcuts-default'!M5</f>
+        <v>窗口置顶 - 切换</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>186</v>
+      <c r="B6" s="22" t="str">
+        <f>'shortcuts-default'!$B$6</f>
+        <v>xfold-shortcuts.xlsx</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>155</v>
+        <v>214</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>154</v>
+        <v>215</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2" t="s">
-        <v>220</v>
-      </c>
+      <c r="K6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
@@ -2931,7 +3003,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2942,51 +3014,61 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
+        <f>'shortcuts-default'!B9</f>
         <v>1</v>
       </c>
       <c r="C9" s="4">
+        <f>'shortcuts-default'!C9</f>
         <v>2</v>
       </c>
       <c r="D9" s="4">
+        <f>'shortcuts-default'!D9</f>
         <v>3</v>
       </c>
       <c r="E9" s="4">
+        <f>'shortcuts-default'!E9</f>
         <v>4</v>
       </c>
       <c r="F9" s="4">
+        <f>'shortcuts-default'!F9</f>
         <v>5</v>
       </c>
       <c r="G9" s="4">
+        <f>'shortcuts-default'!G9</f>
         <v>6</v>
       </c>
       <c r="H9" s="4">
+        <f>'shortcuts-default'!H9</f>
         <v>7</v>
       </c>
       <c r="I9" s="4">
+        <f>'shortcuts-default'!I9</f>
         <v>8</v>
       </c>
       <c r="J9" s="4">
+        <f>'shortcuts-default'!J9</f>
         <v>9</v>
       </c>
       <c r="K9" s="4">
+        <f>'shortcuts-default'!K9</f>
         <v>0</v>
       </c>
-      <c r="L9" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>64</v>
+      <c r="L9" s="4" t="str">
+        <f>'shortcuts-default'!L9</f>
+        <v>-</v>
+      </c>
+      <c r="M9" s="4" t="str">
+        <f>'shortcuts-default'!M9</f>
+        <v>=</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
@@ -2994,12 +3076,22 @@
         <v>0</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="C10" s="23" t="str">
+        <f>'shortcuts-default'!C10</f>
+        <v>百度地图搜索-选中文本</v>
+      </c>
+      <c r="D10" s="23" t="str">
+        <f>'shortcuts-default'!D10</f>
+        <v>w3-info</v>
+      </c>
+      <c r="E10" s="23" t="str">
+        <f>'shortcuts-default'!E10</f>
+        <v>谷歌地图搜索-选中文本</v>
+      </c>
+      <c r="F10" s="23" t="str">
+        <f>'shortcuts-default'!$F$10</f>
+        <v>华为术语查询-选中文本</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -3012,19 +3104,20 @@
       <c r="A11" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>183</v>
+      <c r="B11" s="22" t="str">
+        <f>'shortcuts-default'!$B$11</f>
+        <v>keys-user.txt;keys-default.txt;</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -3052,7 +3145,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3069,43 +3162,55 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>29</v>
+        <v>69</v>
+      </c>
+      <c r="B14" s="4" t="str">
+        <f>'shortcuts-default'!B14</f>
+        <v>q</v>
+      </c>
+      <c r="C14" s="4" t="str">
+        <f>'shortcuts-default'!C14</f>
+        <v>w</v>
+      </c>
+      <c r="D14" s="4" t="str">
+        <f>'shortcuts-default'!D14</f>
+        <v>e</v>
+      </c>
+      <c r="E14" s="4" t="str">
+        <f>'shortcuts-default'!E14</f>
+        <v>r</v>
+      </c>
+      <c r="F14" s="4" t="str">
+        <f>'shortcuts-default'!F14</f>
+        <v>t</v>
+      </c>
+      <c r="G14" s="4" t="str">
+        <f>'shortcuts-default'!G14</f>
+        <v>y</v>
+      </c>
+      <c r="H14" s="4" t="str">
+        <f>'shortcuts-default'!H14</f>
+        <v>u</v>
+      </c>
+      <c r="I14" s="4" t="str">
+        <f>'shortcuts-default'!I14</f>
+        <v>i</v>
+      </c>
+      <c r="J14" s="4" t="str">
+        <f>'shortcuts-default'!J14</f>
+        <v>o</v>
+      </c>
+      <c r="K14" s="4" t="str">
+        <f>'shortcuts-default'!K14</f>
+        <v>p</v>
+      </c>
+      <c r="L14" s="4" t="str">
+        <f>'shortcuts-default'!L14</f>
+        <v>[</v>
+      </c>
+      <c r="M14" s="4" t="str">
+        <f>'shortcuts-default'!M14</f>
+        <v>]</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
@@ -3113,29 +3218,36 @@
         <v>0</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>55</v>
+        <v>232</v>
+      </c>
+      <c r="C15" s="23" t="str">
+        <f>'shortcuts-default'!C15</f>
+        <v>welink-msg</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>202</v>
+        <v>221</v>
+      </c>
+      <c r="E15" s="23" t="str">
+        <f>'shortcuts-default'!E15</f>
+        <v>运行/打开选中对象</v>
+      </c>
+      <c r="F15" s="23" t="str">
+        <f>'shortcuts-default'!F15</f>
+        <v>复制标题与内容-单行</v>
+      </c>
+      <c r="G15" s="23" t="str">
+        <f>'shortcuts-default'!G15</f>
+        <v>Youtube搜索选中文本</v>
       </c>
       <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="I15" s="23" t="str">
+        <f>'shortcuts-default'!$I$15</f>
+        <v>谷歌图片搜索-选中文本</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M15" s="3"/>
     </row>
@@ -3144,13 +3256,18 @@
         <v>1</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
-        <v>91</v>
+      <c r="C16" s="22" t="str">
+        <f>'shortcuts-default'!C16</f>
+        <v>w3-info</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
-        <v>53</v>
+      <c r="E16" s="22" t="str">
+        <f>'shortcuts-default'!$E$16</f>
+        <v>华为术语查询-选中文本</v>
+      </c>
+      <c r="F16" s="22" t="str">
+        <f>'shortcuts-default'!F16</f>
+        <v>复制标题与内容-两行</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -3168,8 +3285,9 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
-        <v>52</v>
+      <c r="F17" s="22" t="str">
+        <f>'shortcuts-default'!F17</f>
+        <v>复制窗口标题到剪贴板</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -3181,88 +3299,105 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
-        <v>52</v>
+      <c r="F18" s="22" t="str">
+        <f>'shortcuts-default'!F18</f>
+        <v>复制窗口标题到剪贴板</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="2" t="s">
-        <v>194</v>
+      <c r="K18" s="22" t="str">
+        <f>'shortcuts-default'!K18</f>
+        <v>复制窗口进程名称到剪贴板</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>51</v>
+        <v>69</v>
+      </c>
+      <c r="B19" s="4" t="str">
+        <f>'shortcuts-default'!B19</f>
+        <v>a</v>
+      </c>
+      <c r="C19" s="4" t="str">
+        <f>'shortcuts-default'!C19</f>
+        <v>s</v>
+      </c>
+      <c r="D19" s="4" t="str">
+        <f>'shortcuts-default'!D19</f>
+        <v>d</v>
+      </c>
+      <c r="E19" s="4" t="str">
+        <f>'shortcuts-default'!E19</f>
+        <v>f</v>
+      </c>
+      <c r="F19" s="4" t="str">
+        <f>'shortcuts-default'!F19</f>
+        <v>g</v>
+      </c>
+      <c r="G19" s="4" t="str">
+        <f>'shortcuts-default'!G19</f>
+        <v>h</v>
+      </c>
+      <c r="H19" s="4" t="str">
+        <f>'shortcuts-default'!H19</f>
+        <v>j</v>
+      </c>
+      <c r="I19" s="4" t="str">
+        <f>'shortcuts-default'!I19</f>
+        <v>k</v>
+      </c>
+      <c r="J19" s="4" t="str">
+        <f>'shortcuts-default'!J19</f>
+        <v>l</v>
+      </c>
+      <c r="K19" s="4" t="str">
+        <f>'shortcuts-default'!K19</f>
+        <v>;</v>
+      </c>
+      <c r="L19" s="4" t="str">
+        <f>'shortcuts-default'!L19</f>
+        <v>'</v>
+      </c>
+      <c r="M19" s="4" t="str">
+        <f>'shortcuts-default'!M19</f>
+        <v>\</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="B20" s="23" t="str">
+        <f>'shortcuts-default'!B20</f>
+        <v>文本编辑器打开-选中文件</v>
+      </c>
+      <c r="C20" s="23" t="str">
+        <f>'shortcuts-default'!C20</f>
+        <v>xfold笔记收藏 选中文本</v>
+      </c>
+      <c r="D20" s="23" t="str">
+        <f>'shortcuts-default'!D20</f>
+        <v>豆瓣搜索-选中文本</v>
+      </c>
+      <c r="E20" s="23" t="str">
+        <f>'shortcuts-default'!E20</f>
+        <v>Everything搜索选中文本（截取文件名）</v>
+      </c>
+      <c r="F20" s="23" t="str">
+        <f>'shortcuts-default'!F20</f>
+        <v>谷歌搜索-选中文本</v>
+      </c>
+      <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -3306,15 +3441,17 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="2" t="s">
-        <v>191</v>
+      <c r="C23" s="22" t="str">
+        <f>'shortcuts-default'!C23</f>
+        <v>查看xfold收藏的笔记</v>
       </c>
       <c r="D23" s="2"/>
-      <c r="E23" s="2" t="s">
-        <v>198</v>
+      <c r="E23" s="22" t="str">
+        <f>'shortcuts-default'!E23</f>
+        <v>Everything搜索选中文本（不截取）</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -3327,80 +3464,101 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="L24" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="M24" s="4" t="s">
-        <v>70</v>
+      <c r="B24" s="4" t="str">
+        <f>'shortcuts-default'!B24</f>
+        <v>z</v>
+      </c>
+      <c r="C24" s="4" t="str">
+        <f>'shortcuts-default'!C24</f>
+        <v>x</v>
+      </c>
+      <c r="D24" s="4" t="str">
+        <f>'shortcuts-default'!D24</f>
+        <v>c</v>
+      </c>
+      <c r="E24" s="4" t="str">
+        <f>'shortcuts-default'!E24</f>
+        <v>v</v>
+      </c>
+      <c r="F24" s="4" t="str">
+        <f>'shortcuts-default'!F24</f>
+        <v>b</v>
+      </c>
+      <c r="G24" s="4" t="str">
+        <f>'shortcuts-default'!G24</f>
+        <v>n</v>
+      </c>
+      <c r="H24" s="4" t="str">
+        <f>'shortcuts-default'!H24</f>
+        <v>m</v>
+      </c>
+      <c r="I24" s="4" t="str">
+        <f>'shortcuts-default'!I24</f>
+        <v>,</v>
+      </c>
+      <c r="J24" s="4" t="str">
+        <f>'shortcuts-default'!J24</f>
+        <v>.</v>
+      </c>
+      <c r="K24" s="4" t="str">
+        <f>'shortcuts-default'!K24</f>
+        <v>Space</v>
+      </c>
+      <c r="L24" s="4" t="str">
+        <f>'shortcuts-default'!L24</f>
+        <v>LAlt</v>
+      </c>
+      <c r="M24" s="4" t="str">
+        <f>'shortcuts-default'!M24</f>
+        <v>Tab</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>56</v>
+        <v>63</v>
+      </c>
+      <c r="B25" s="23" t="str">
+        <f>'shortcuts-default'!B25</f>
+        <v>知乎搜索-选中文本</v>
+      </c>
+      <c r="C25" s="23" t="str">
+        <f>'shortcuts-default'!$C$25</f>
+        <v>Forvo发音查询-选中文本</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>196</v>
+        <v>189</v>
+      </c>
+      <c r="E25" s="23" t="str">
+        <f>'shortcuts-default'!E25</f>
+        <v>预览查看-选中文件</v>
+      </c>
+      <c r="F25" s="23" t="str">
+        <f>'shortcuts-default'!F25</f>
+        <v>百度搜索-选中文本</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>108</v>
+      <c r="I25" s="23" t="str">
+        <f>'shortcuts-default'!I25</f>
+        <v>Youglish-EN</v>
+      </c>
+      <c r="J25" s="23" t="str">
+        <f>'shortcuts-default'!J25</f>
+        <v>Youglish-ES</v>
+      </c>
+      <c r="K25" s="23" t="str">
+        <f>'shortcuts-default'!K25</f>
+        <v>Enter</v>
+      </c>
+      <c r="L25" s="23" t="str">
+        <f>'shortcuts-default'!L25</f>
+        <v>Delete</v>
+      </c>
+      <c r="M25" s="23" t="str">
+        <f>'shortcuts-default'!M25</f>
+        <v>Alt+Tab</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.45">
@@ -3410,7 +3568,10 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="E26" s="22" t="str">
+        <f>'shortcuts-default'!$E$26</f>
+        <v>Forvo发音查询-选中文本</v>
+      </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -3439,12 +3600,12 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -3457,401 +3618,401 @@
       <c r="M28" s="2"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A30" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="F30" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="M30" s="29"/>
+      <c r="A30" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="F30" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="M30" s="33"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="9" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="G31" s="22"/>
-      <c r="H31" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="I31" s="24"/>
-      <c r="J31" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="K31" s="24"/>
-      <c r="L31" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="M31" s="26"/>
+        <v>72</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="26"/>
+      <c r="H31" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="I31" s="28"/>
+      <c r="J31" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="K31" s="28"/>
+      <c r="L31" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="M31" s="30"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32" s="9" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J32" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="L32" s="11" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A33" s="9" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C33" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="H33" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="H33" s="17" t="s">
-        <v>141</v>
-      </c>
       <c r="I33" s="13" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="K33" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L33" s="11"/>
       <c r="M33" s="2"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A34" s="9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J34" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="L34" s="11"/>
       <c r="M34" s="2"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A35" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>104</v>
+      <c r="A35" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>217</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K35" s="13" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="L35" s="11"/>
       <c r="M35" s="2"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A36" s="9" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="J36" s="17" t="s">
         <v>51</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="L36" s="11"/>
       <c r="M36" s="2"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37" s="9" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="J37" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="K37" s="24"/>
+        <v>113</v>
+      </c>
+      <c r="J37" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="K37" s="28"/>
       <c r="L37" s="11"/>
       <c r="M37" s="2"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38" s="9" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="J38" s="17" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="K38" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L38" s="11"/>
       <c r="M38" s="2"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A39" s="9" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="J39" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K39" s="13" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="L39" s="11"/>
       <c r="M39" s="2"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A40" s="9" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H40" s="17" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="J40" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="K40" s="24"/>
+        <v>205</v>
+      </c>
+      <c r="J40" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="K40" s="28"/>
       <c r="L40" s="11"/>
       <c r="M40" s="2"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A41" s="9" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="H41" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="I41" s="24"/>
+        <v>116</v>
+      </c>
+      <c r="H41" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="I41" s="28"/>
       <c r="J41" s="17" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="K41" s="13" t="s">
         <v>18</v>
@@ -3861,60 +4022,60 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A42" s="9" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F42" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="H42" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="G42" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="H42" s="17" t="s">
-        <v>153</v>
-      </c>
       <c r="I42" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="J42" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="K42" s="24"/>
+        <v>66</v>
+      </c>
+      <c r="J42" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="K42" s="28"/>
       <c r="L42" s="11"/>
       <c r="M42" s="2"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A43" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="10"/>
       <c r="F43" s="9" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="H43" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="I43" s="24"/>
+        <v>173</v>
+      </c>
+      <c r="H43" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="I43" s="28"/>
       <c r="J43" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K43" s="13" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="L43" s="11"/>
       <c r="M43" s="2"/>
@@ -3925,21 +4086,21 @@
       <c r="C44" s="12"/>
       <c r="D44" s="10"/>
       <c r="F44" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="J44" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="K44" s="24"/>
+        <v>157</v>
+      </c>
+      <c r="J44" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="K44" s="28"/>
       <c r="L44" s="11"/>
       <c r="M44" s="2"/>
     </row>
@@ -3950,15 +4111,15 @@
       <c r="D45" s="10"/>
       <c r="F45" s="5"/>
       <c r="G45" s="16"/>
-      <c r="H45" s="23" t="s">
-        <v>229</v>
-      </c>
-      <c r="I45" s="24"/>
+      <c r="H45" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="I45" s="28"/>
       <c r="J45" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K45" s="13" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="L45" s="11"/>
       <c r="M45" s="2"/>
@@ -3971,10 +4132,10 @@
       <c r="F46" s="5"/>
       <c r="G46" s="16"/>
       <c r="H46" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="J46" s="17"/>
       <c r="K46" s="13"/>
@@ -3989,10 +4150,10 @@
       <c r="F47" s="5"/>
       <c r="G47" s="16"/>
       <c r="H47" s="17" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="J47" s="17"/>
       <c r="K47" s="13"/>
